--- a/src/assets/ChatTrinityEnglishSourceData.xlsx
+++ b/src/assets/ChatTrinityEnglishSourceData.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\TrinityOps\trinity-ops-chat\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA91B84D-792F-49CF-9AEB-26D25C2E8744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02660EEE-205B-4DD0-9A27-1F1D60ABB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{767CB8E1-717A-4A4B-9A2F-73181A3DE1DB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{767CB8E1-717A-4A4B-9A2F-73181A3DE1DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$192</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,10 +27,608 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="195">
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/Discover-Trinity-English</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/English-language-special-needs</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life/ESOL-Skills-for-Life-exam-administration</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life/ESOL-Skills-for-Life-exam-administration/faq</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life/ESOL-Skills-for-Life-levels</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life/ESOL-Skills-for-Life-training-and-events</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life/Results-and-certificates</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life/run-esol-skills-for-life</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ESOL-Step-1-and-Step-2</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-exam-administration</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-grades-10-12-advanced-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-grades-1-3-initial-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-grades-4-6-elementary-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-grades-7-9-intermediate-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-levels-and-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-results-and-certificates</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/GESE/GESE-student-information</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-exam-administration</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-exam-administration/ISE-online-options</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-FAQs</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-Foundation-A2-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-I-B1-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-II-B2-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-III-C1-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-IV-C2-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-IV-C2-resources/ISE-IV-C2-guides</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-levels</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-results-and-certificates</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/ISE/ISE-student-information</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/parent-information</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/Private-language-schools</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/Trinity-Stars/Trinity-Stars-awards-and-certificates</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/Trinity-Stars/Trinity-Stars-guidance</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/Trinity-Stars/Trinity-Stars-parents</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/english-language/Trinity-Stars/Trinity-Stars-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/ba-hons-conversion-course</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/course-providers</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/fee-information</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/funding</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/level-5-acting</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/level-5-dance</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/level-6-acting</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/level-6-dance</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/overview</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/PPAD/validation</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELTlive</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELTstudy</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELTwork</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/A1-GESE-grade-2</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/A2-GESE-grade-3</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/B1-GESE-grade-5</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/B1-ISE-I</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/B2-ISE-II</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/C1-ISE-III</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/contact-us</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/immigration-advisors</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/listed-SELT-course-provider</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/listed-SELT-course-provider/SELT-course-provider-application</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/listed-SELT-course-provider/SELT-course-provider-support</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/preparation-courses</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/prepare-test-A1</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/prepare-test-A2</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/prepare-test-B2</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/prepare-test-C1</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/prepare-test-GESE-B1</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/prepare-test-ISE-B1</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/SELT-centres</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/SELT-Secure-English-Language-Test</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/support-resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/UKVI</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/UKVI/preparation-courses/SELT-course-preparation</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/UKVI/preparation-courses/SELT-course-provider-information</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/UKVI/SELT-centres</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/UKVI/SELT-centres-what-to-expect</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/SELT/why-choose-Trinity</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertPT</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertPT/entry-requirements</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertPT/FAQs</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertPT/find-a-course</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertPT/resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/certtesol</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertTESOL/career</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertTESOL/content</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertTESOL/entry-requirements</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertTESOL/FAQs</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertTESOL/find-course</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/CertTESOL/resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/diptesol</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/DipTESOL/career</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/DipTESOL/content</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/DipTESOL/entry-requirements</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/DipTESOL/exam-dates</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/DipTESOL/FAQs</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/DipTESOL/find-course</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/DipTESOL/resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/Discover-Trinity-TESOL</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/find-course</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/resources</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/teach-english-online</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/teach-english-online/FAQs</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/teach-english-online/tesol-qualifications</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/tesol-centre</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/TYLEC</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/TYLEC/content</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/TYLEC/entry-requirements</t>
+  </si>
+  <si>
+    <t>http://www.trinitycollege.com/qualifications/teaching-english/TYLEC/FAQs</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/arts-award</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/ESOL-skills-for-life</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/ESOL-Step-1-and-Step-2</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/GESE</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/ISE</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/trinity-stars</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/PPAD</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/SELT</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/SELT/UKVI/A1-GESE-grade-2/prepare-GESE-grade-2</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/SELT/UKVI/A2-GESE-grade-3/prepare-GESE-grade-3</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/SELT/UKVI/B1-GESE-grade-5/prepare-GESE-grade-5</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/SELT/UKVI/preparation-courses/SELT-course-provider-information</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english/CertPT</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english/certtesol</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english/CertTESOL/resources/developing-skills-guides</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english/diptesol</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english/Discover-Trinity-TESOL</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english/teach-english-online</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/teaching-english/TYLEC</t>
+  </si>
+  <si>
+    <t>Web/PDF</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Guide and Preparation for Candidates (GESE Grade 5) (6476)</t>
+  </si>
+  <si>
+    <t>GESE Exam Information Booklet (5755)</t>
+  </si>
+  <si>
+    <t>Preparation Activities - GESE Grade 5 (6482)</t>
+  </si>
+  <si>
+    <t>ISE Guidance with Writing Genres (6318)</t>
+  </si>
+  <si>
+    <t>ISE/GESE Performance Descriptors -Interview (2504)</t>
+  </si>
+  <si>
+    <t>How to mark ISE practice materials (7353)</t>
+  </si>
+  <si>
+    <t>GESE Initial steps - Guide for teachers 2014 (5650)</t>
+  </si>
+  <si>
+    <t>Preparation Activities - GESE Grade 3 (7265)</t>
+  </si>
+  <si>
+    <t>Trinity SELT Candidate ID Policy (6136)</t>
+  </si>
+  <si>
+    <t>GESE Elementary Steps - Guide for Teachers, Grades 4-6 (2015 adult students (6540)</t>
+  </si>
+  <si>
+    <t>ESOL SfL - Tips for preparing learners for the Speaking and Listening exam (8728)</t>
+  </si>
+  <si>
+    <t>Guide for Students - ISE I (SELT) (6652)</t>
+  </si>
+  <si>
+    <t>GESE Grade 2 - Preparation Activities (6535)</t>
+  </si>
+  <si>
+    <t>Guide for Teachers - ISE II (6292)</t>
+  </si>
+  <si>
+    <t>Guide for Students - ISE I (6295)</t>
+  </si>
+  <si>
+    <t>Guide for Students - ISE II (6296)</t>
+  </si>
+  <si>
+    <t>ISE Specifications - Reading &amp; Writing (6299)</t>
+  </si>
+  <si>
+    <t>Guide for Teachers - ISE I (6291)</t>
+  </si>
+  <si>
+    <t>GESE Guide for Teachers_Initial stage_Grades 1-3 (adult learners) (8746)</t>
+  </si>
+  <si>
+    <t>ISE Specifications - Speaking &amp; Listening (6298)</t>
+  </si>
+  <si>
+    <t>CertTESOL factsheet (9017)</t>
+  </si>
+  <si>
+    <t>CertTESOL Syllabus 2016 (5407)</t>
+  </si>
+  <si>
+    <t>Guide for Students - ISE III (6297)</t>
+  </si>
+  <si>
+    <t>Guide for Teachers - ISE III (6293)</t>
+  </si>
+  <si>
+    <t>ISE II Portfolio Toolkit (6050)</t>
+  </si>
+  <si>
+    <t>Test Overview ISE II (B2) (8447)</t>
+  </si>
+  <si>
+    <t>GESE Intermediate Steps - Guide for teachers, Grades 7-9 (6751)</t>
+  </si>
+  <si>
+    <t>Trinity ISE scoring information (6492)</t>
+  </si>
+  <si>
+    <t>GESE factsheet (A4) - young adult image (5547)</t>
+  </si>
+  <si>
+    <t>Trinity ESOL Skills for Life Specifications - Entry 2 EERF version (9268)</t>
+  </si>
+  <si>
+    <t>ESOL SfL centre best practice guidebook (6229)</t>
+  </si>
+  <si>
+    <t>Trinity Stars Guide for Teachers (6567)</t>
+  </si>
+  <si>
+    <t>Trinity ESOL Skills for Life Specifications - Entry 1 EERF version (9267)</t>
+  </si>
+  <si>
+    <t>Trinity ESOL Skills for Life Specifications - Entry 3 EERF version (9269)</t>
+  </si>
+  <si>
+    <t>Guide for Teachers - ISE Foundation (6290)</t>
+  </si>
+  <si>
+    <t>DipTESOL factsheet (9020)</t>
+  </si>
+  <si>
+    <t>B1 - Speaking Activities - Teachers Notes 2 (8835)</t>
+  </si>
+  <si>
+    <t>TYLEC factsheet (9018)</t>
+  </si>
+  <si>
+    <t>GESE Guide for Teachers_Advanced stage_Grades 10-12 (8745)</t>
+  </si>
+  <si>
+    <t>Trinity ESOL Skills for Life Specifications - Level 1 EERF version (9270)</t>
+  </si>
+  <si>
+    <t>Guide for Students - ISE II (SELT) (6653)</t>
+  </si>
+  <si>
+    <t>CertPT Qualification Specifications and VRs (9015)</t>
+  </si>
+  <si>
+    <t>ISE factsheet for teachers (6276)</t>
+  </si>
+  <si>
+    <t>ISE IV Portfolio tasks 2023.pdf (9941)</t>
+  </si>
+  <si>
+    <t>Trinity ESOL Skills for Life Specifications - Level 2 EERF version (9271)</t>
+  </si>
+  <si>
+    <t>Trinity TEO &amp; CertOT Factsheet DIGITAL (9817)</t>
+  </si>
+  <si>
+    <t>Trinity ESOL Skills for Life Factsheet (7972)</t>
+  </si>
+  <si>
+    <t>Trinity Stars A4 factsheet (5518)</t>
+  </si>
+  <si>
+    <t>CertPT factsheet (9019)</t>
+  </si>
+  <si>
+    <t>ESOL Skills for Life - Fee sheet_varied delivery (9265)</t>
+  </si>
+  <si>
+    <t>TESOL qualifications table (9813)</t>
+  </si>
+  <si>
+    <t>00 GESE 10 (CEFR C1.1) - Scheme of work (9723)</t>
+  </si>
+  <si>
+    <t>Trinity TESOL overview factsheet (9016)</t>
+  </si>
+  <si>
+    <t>ESOL Step 1 and Step 2 Factsheet (8717)</t>
+  </si>
+  <si>
+    <t>ISE Factsheet for students (6279)</t>
+  </si>
+  <si>
+    <t>CertPT factsheet - Mandarin Chinese (9050)</t>
+  </si>
+  <si>
+    <t>CertPT factsheet - Spanish (9049)</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,8 +656,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +973,1559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="102.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>136</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>136</v>
+      </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>194</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>194</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>194</v>
+      </c>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>194</v>
+      </c>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>194</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>194</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>194</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>194</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>194</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>194</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>194</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>194</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>194</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>194</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>194</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>194</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>194</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>194</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>194</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>194</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>194</v>
+      </c>
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>194</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>194</v>
+      </c>
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>194</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>194</v>
+      </c>
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>194</v>
+      </c>
+      <c r="B174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>194</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>194</v>
+      </c>
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>194</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>194</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>194</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>194</v>
+      </c>
+      <c r="B185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B192" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B135">
+    <sortCondition ref="B2:B135"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/ChatTrinityEnglishSourceData.xlsx
+++ b/src/assets/ChatTrinityEnglishSourceData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Vivo Music Dropbox\Trinity College London\TCL National\Strategy &amp; R&amp;D\R&amp;D\Chatbot\Code\ChatTrinity\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02660EEE-205B-4DD0-9A27-1F1D60ABB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5399A-082E-4D0C-8D24-14476985C1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{767CB8E1-717A-4A4B-9A2F-73181A3DE1DB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="196">
   <si>
     <t>http://www.trinitycollege.com/qualifications/english-language</t>
   </si>
@@ -613,13 +613,16 @@
   </si>
   <si>
     <t>PDF</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/about-us/work-with-trinity/registered-exam-centre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +634,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -653,14 +664,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,11 +987,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2067,10 +2079,10 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>194</v>
-      </c>
-      <c r="B136" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
@@ -2078,7 +2090,7 @@
         <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -2086,7 +2098,7 @@
         <v>194</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -2094,7 +2106,7 @@
         <v>194</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
@@ -2102,7 +2114,7 @@
         <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
@@ -2110,7 +2122,7 @@
         <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -2118,7 +2130,7 @@
         <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
@@ -2126,7 +2138,7 @@
         <v>194</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
@@ -2134,7 +2146,7 @@
         <v>194</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
@@ -2142,7 +2154,7 @@
         <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
@@ -2150,7 +2162,7 @@
         <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
@@ -2158,7 +2170,7 @@
         <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
@@ -2166,7 +2178,7 @@
         <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
@@ -2174,7 +2186,7 @@
         <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
@@ -2182,7 +2194,7 @@
         <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
@@ -2190,7 +2202,7 @@
         <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
@@ -2198,7 +2210,7 @@
         <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
@@ -2206,7 +2218,7 @@
         <v>194</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
@@ -2214,7 +2226,7 @@
         <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
@@ -2222,7 +2234,7 @@
         <v>194</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
@@ -2230,7 +2242,7 @@
         <v>194</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
@@ -2238,7 +2250,7 @@
         <v>194</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
@@ -2246,7 +2258,7 @@
         <v>194</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
@@ -2254,7 +2266,7 @@
         <v>194</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
@@ -2262,7 +2274,7 @@
         <v>194</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
@@ -2270,7 +2282,7 @@
         <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
@@ -2278,7 +2290,7 @@
         <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
@@ -2286,7 +2298,7 @@
         <v>194</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
@@ -2294,7 +2306,7 @@
         <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
@@ -2302,7 +2314,7 @@
         <v>194</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
@@ -2310,7 +2322,7 @@
         <v>194</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
@@ -2318,7 +2330,7 @@
         <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
@@ -2326,7 +2338,7 @@
         <v>194</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
@@ -2334,7 +2346,7 @@
         <v>194</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
@@ -2342,7 +2354,7 @@
         <v>194</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
@@ -2350,7 +2362,7 @@
         <v>194</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -2358,7 +2370,7 @@
         <v>194</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -2366,7 +2378,7 @@
         <v>194</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -2374,7 +2386,7 @@
         <v>194</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -2382,7 +2394,7 @@
         <v>194</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
@@ -2390,7 +2402,7 @@
         <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
@@ -2398,7 +2410,7 @@
         <v>194</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
@@ -2406,7 +2418,7 @@
         <v>194</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
@@ -2414,7 +2426,7 @@
         <v>194</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
@@ -2422,7 +2434,7 @@
         <v>194</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
@@ -2430,7 +2442,7 @@
         <v>194</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
@@ -2438,7 +2450,7 @@
         <v>194</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
@@ -2446,7 +2458,7 @@
         <v>194</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
@@ -2454,7 +2466,7 @@
         <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
@@ -2462,7 +2474,7 @@
         <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
@@ -2470,7 +2482,7 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
@@ -2478,7 +2490,7 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
@@ -2486,7 +2498,7 @@
         <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
@@ -2494,7 +2506,7 @@
         <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
@@ -2502,7 +2514,7 @@
         <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
@@ -2510,7 +2522,7 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
@@ -2518,14 +2530,25 @@
         <v>194</v>
       </c>
       <c r="B192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B192" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}"/>
+  <autoFilter ref="A1:B193" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B135">
     <sortCondition ref="B2:B135"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B136" r:id="rId1" xr:uid="{08979517-3341-47B1-B2F8-697CD74F32BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/ChatTrinityEnglishSourceData.xlsx
+++ b/src/assets/ChatTrinityEnglishSourceData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Vivo Music Dropbox\Trinity College London\TCL National\Strategy &amp; R&amp;D\R&amp;D\Chatbot\Code\ChatTrinity\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB5399A-082E-4D0C-8D24-14476985C1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A54572-620C-47A7-B864-DE692FAC4929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{767CB8E1-717A-4A4B-9A2F-73181A3DE1DB}"/>
   </bookViews>
@@ -16,19 +16,30 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="206">
   <si>
     <t>http://www.trinitycollege.com/qualifications/english-language</t>
   </si>
@@ -616,6 +627,36 @@
   </si>
   <si>
     <t>https://www.trinitycollege.com/about-us/work-with-trinity/registered-exam-centre</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/ISE/ISE-FAQs</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/local-trinity/UK/english-language/Help/FAQ-existing-centres</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/local-trinity/UK/english-language/Help/FAQ-prospective-centres</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/local-trinity/UK/english-language/Help/FAQ-education-agents</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/local-trinity/UK/english-language/Help/FAQ-teachers</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/local-trinity/UK/english-language/Help/FAQ-learners</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/GESE/GESE-exam-administration/GESE-Home-grades-1-4/FAQs</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/english-language/ISE/ISE-exam-administration/ISE-online-options/FAQs</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/qualifications/SELT/SELT-faqs</t>
+  </si>
+  <si>
+    <t>https://www.trinitycollege.com/local-trinity/UK/english-language/language-access-fund/faqs</t>
   </si>
 </sst>
 </file>
@@ -987,14 +1028,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="102.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -1007,458 +1050,458 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -1466,7 +1509,7 @@
         <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -1474,7 +1517,7 @@
         <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -1482,7 +1525,7 @@
         <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -1490,7 +1533,7 @@
         <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -1498,7 +1541,7 @@
         <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -1506,7 +1549,7 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -1514,7 +1557,7 @@
         <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -1522,7 +1565,7 @@
         <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -1530,7 +1573,7 @@
         <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -1538,7 +1581,7 @@
         <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -1546,7 +1589,7 @@
         <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -1554,7 +1597,7 @@
         <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -1562,7 +1605,7 @@
         <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -1570,7 +1613,7 @@
         <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -1578,7 +1621,7 @@
         <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -1586,7 +1629,7 @@
         <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -1594,7 +1637,7 @@
         <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -1602,7 +1645,7 @@
         <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -1610,7 +1653,7 @@
         <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -1618,7 +1661,7 @@
         <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -1626,7 +1669,7 @@
         <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -1634,7 +1677,7 @@
         <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -1642,7 +1685,7 @@
         <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -1650,7 +1693,7 @@
         <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -1658,7 +1701,7 @@
         <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -1666,7 +1709,7 @@
         <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -1674,7 +1717,7 @@
         <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -1682,7 +1725,7 @@
         <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -1690,7 +1733,7 @@
         <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -1698,7 +1741,7 @@
         <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -1706,7 +1749,7 @@
         <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -1714,7 +1757,7 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -1722,7 +1765,7 @@
         <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -1730,7 +1773,7 @@
         <v>136</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -1738,7 +1781,7 @@
         <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -1746,7 +1789,7 @@
         <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -1754,7 +1797,7 @@
         <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -1762,7 +1805,7 @@
         <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -1770,7 +1813,7 @@
         <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -1778,7 +1821,7 @@
         <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -1786,7 +1829,7 @@
         <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -1794,7 +1837,7 @@
         <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -1802,7 +1845,7 @@
         <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -1810,7 +1853,7 @@
         <v>136</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -1818,7 +1861,7 @@
         <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -1826,7 +1869,7 @@
         <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -1834,7 +1877,7 @@
         <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -1842,7 +1885,7 @@
         <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
@@ -1850,7 +1893,7 @@
         <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -1858,7 +1901,7 @@
         <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -1866,7 +1909,7 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
@@ -1874,7 +1917,7 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -1882,7 +1925,7 @@
         <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -1890,7 +1933,7 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
@@ -1898,7 +1941,7 @@
         <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -1906,7 +1949,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -1914,7 +1957,7 @@
         <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -1922,7 +1965,7 @@
         <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -1930,7 +1973,7 @@
         <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -1938,7 +1981,7 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -1946,7 +1989,7 @@
         <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
@@ -1954,7 +1997,7 @@
         <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -1962,7 +2005,7 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
@@ -1970,7 +2013,7 @@
         <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -1978,7 +2021,7 @@
         <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
@@ -1986,7 +2029,7 @@
         <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -1994,7 +2037,7 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -2002,7 +2045,7 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
@@ -2010,7 +2053,7 @@
         <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
@@ -2018,7 +2061,7 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
@@ -2026,7 +2069,7 @@
         <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -2034,7 +2077,7 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
@@ -2042,7 +2085,7 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
@@ -2050,7 +2093,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
@@ -2058,7 +2101,7 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
@@ -2066,7 +2109,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
@@ -2074,480 +2117,561 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>195</v>
+      <c r="B136" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>194</v>
-      </c>
-      <c r="B172" t="s">
-        <v>172</v>
+        <v>136</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>136</v>
+      </c>
+      <c r="B194" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>136</v>
+      </c>
+      <c r="B195" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>136</v>
+      </c>
+      <c r="B196" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>136</v>
+      </c>
+      <c r="B197" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>136</v>
+      </c>
+      <c r="B198" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>136</v>
+      </c>
+      <c r="B199" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>136</v>
+      </c>
+      <c r="B200" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>136</v>
+      </c>
+      <c r="B202" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>136</v>
+      </c>
+      <c r="B203" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B193" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B135">
-    <sortCondition ref="B2:B135"/>
+  <autoFilter ref="A1:B199" xr:uid="{50C14BDF-EED2-4551-A2A9-086DD03AE42C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B203">
+    <sortCondition ref="A2:A203"/>
+    <sortCondition ref="B2:B203"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B136" r:id="rId1" xr:uid="{08979517-3341-47B1-B2F8-697CD74F32BC}"/>
+    <hyperlink ref="B172" r:id="rId1" xr:uid="{08979517-3341-47B1-B2F8-697CD74F32BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
